--- a/biology/Zoologie/Cameraria_hamadryadella/Cameraria_hamadryadella.xlsx
+++ b/biology/Zoologie/Cameraria_hamadryadella/Cameraria_hamadryadella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cameraria hamadryadella est une espèce de papillons de la famille des Gracillariidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cameraria hamadryadella est une espèce de papillons de la famille des Gracillariidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon est largement distribué dans les régions tempérées d'Amérique du Nord[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon est largement distribué dans les régions tempérées d'Amérique du Nord,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 6,5 à 8,5 mm. Les adultes sont en vol au printemps.
-Les larves se nourrissent d'espèces de Gaylussacia et Quercus, notamment Quercus alba, Quercus benderi, Quercus bicolor, Quercus coccinea, Quercus ilicifolia, Quercus lyrata, Quercus macrocarpa, Quercus macrocarpa, Quercus marilandica, Quercus obtusiloba, Quercus prinoides, Quercus prinus, Quercus robur, Quercus rubra, Quercus stellata et Quercus velutina. Elles minent les feuilles de leur plante hôte. La mine est constituée d'une tache supérieure. Elles hivernent dans la litière de feuilles sous forme de larves en diapause dans la mine des feuilles[4].
+Les larves se nourrissent d'espèces de Gaylussacia et Quercus, notamment Quercus alba, Quercus benderi, Quercus bicolor, Quercus coccinea, Quercus ilicifolia, Quercus lyrata, Quercus macrocarpa, Quercus macrocarpa, Quercus marilandica, Quercus obtusiloba, Quercus prinoides, Quercus prinus, Quercus robur, Quercus rubra, Quercus stellata et Quercus velutina. Elles minent les feuilles de leur plante hôte. La mine est constituée d'une tache supérieure. Elles hivernent dans la litière de feuilles sous forme de larves en diapause dans la mine des feuilles.
 </t>
         </is>
       </c>
